--- a/April'21/11.04.2021/Bank Statement.xlsx
+++ b/April'21/11.04.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -25,6 +25,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rabar+Toilet tissue</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>*</author>
@@ -75,64 +109,6 @@
           </rPr>
           <t xml:space="preserve">
 Decoretion+banner+Lunce+</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="C8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jilani mosjid market</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tuhin mosjid market</t>
         </r>
       </text>
     </comment>
@@ -198,8 +174,66 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jilani mosjid market</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tuhin mosjid market</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="170">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -678,10 +712,34 @@
     <t>08.04.2021</t>
   </si>
   <si>
-    <t>Date:08.04.2021</t>
-  </si>
-  <si>
-    <t>Date :08-04-2021</t>
+    <t>Mamun</t>
+  </si>
+  <si>
+    <t>CMO</t>
+  </si>
+  <si>
+    <t>Mehedi</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>Rakib</t>
+  </si>
+  <si>
+    <t>01908446145</t>
+  </si>
+  <si>
+    <t>10.04.2021</t>
+  </si>
+  <si>
+    <t>Date:12.04.2021</t>
+  </si>
+  <si>
+    <t>Date :11-04-2021</t>
+  </si>
+  <si>
+    <t>11.04.2021</t>
   </si>
   <si>
     <t>Date:11.04.2021</t>
@@ -3665,12 +3723,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4056,7 +4114,9 @@
       <c r="D12" s="116"/>
       <c r="E12" s="116"/>
       <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
+      <c r="G12" s="116">
+        <v>2248</v>
+      </c>
       <c r="H12" s="116"/>
       <c r="I12" s="116"/>
       <c r="J12" s="116"/>
@@ -4069,7 +4129,7 @@
       <c r="Q12" s="118"/>
       <c r="R12" s="113">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2248</v>
       </c>
       <c r="S12" s="114"/>
       <c r="T12" s="107"/>
@@ -4079,13 +4139,19 @@
       <c r="X12" s="101"/>
     </row>
     <row r="13" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
+      <c r="A13" s="109" t="s">
+        <v>165</v>
+      </c>
       <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
+      <c r="C13" s="116">
+        <v>400</v>
+      </c>
       <c r="D13" s="116"/>
       <c r="E13" s="116"/>
       <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
+      <c r="G13" s="116">
+        <v>2263</v>
+      </c>
       <c r="H13" s="116"/>
       <c r="I13" s="116"/>
       <c r="J13" s="116"/>
@@ -4098,7 +4164,7 @@
       <c r="Q13" s="118"/>
       <c r="R13" s="113">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2663</v>
       </c>
       <c r="S13" s="114"/>
       <c r="T13" s="106"/>
@@ -4108,13 +4174,21 @@
       <c r="X13" s="107"/>
     </row>
     <row r="14" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
+      <c r="A14" s="109" t="s">
+        <v>168</v>
+      </c>
       <c r="B14" s="115"/>
       <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
+      <c r="D14" s="116">
+        <v>65</v>
+      </c>
+      <c r="E14" s="116">
+        <v>170</v>
+      </c>
       <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
+      <c r="G14" s="116">
+        <v>1915</v>
+      </c>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
       <c r="J14" s="116"/>
@@ -4127,7 +4201,7 @@
       <c r="Q14" s="118"/>
       <c r="R14" s="113">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="S14" s="114"/>
       <c r="T14" s="120"/>
@@ -4723,15 +4797,15 @@
       </c>
       <c r="C37" s="132">
         <f t="shared" ref="C37:Q37" si="1">SUM(C6:C36)</f>
-        <v>1260</v>
+        <v>1660</v>
       </c>
       <c r="D37" s="132">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E37" s="132">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F37" s="132">
         <f t="shared" si="1"/>
@@ -4739,7 +4813,7 @@
       </c>
       <c r="G37" s="132">
         <f t="shared" si="1"/>
-        <v>11708</v>
+        <v>18134</v>
       </c>
       <c r="H37" s="132">
         <f t="shared" si="1"/>
@@ -4783,7 +4857,7 @@
       </c>
       <c r="R37" s="134">
         <f>SUM(R6:R36)</f>
-        <v>13098</v>
+        <v>20159</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -6802,6 +6876,7 @@
     <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6811,7 +6886,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7181,11 +7256,17 @@
       <c r="S13" s="9"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
+      <c r="A14" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="65">
+        <v>0</v>
+      </c>
+      <c r="C14" s="65">
+        <v>0</v>
+      </c>
       <c r="D14" s="45">
-        <f t="shared" si="0"/>
+        <f>D13+B14-C14</f>
         <v>36250</v>
       </c>
       <c r="E14" s="5"/>
@@ -7205,12 +7286,18 @@
       <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="65"/>
+      <c r="A15" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="46">
+        <v>615000</v>
+      </c>
+      <c r="C15" s="65">
+        <v>300000</v>
+      </c>
       <c r="D15" s="45">
         <f>D14+B15-C15</f>
-        <v>36250</v>
+        <v>351250</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="51"/>
@@ -7229,12 +7316,18 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="50">
+        <v>0</v>
+      </c>
+      <c r="C16" s="65">
+        <v>300000</v>
+      </c>
       <c r="D16" s="45">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="52"/>
@@ -7258,7 +7351,7 @@
       <c r="C17" s="46"/>
       <c r="D17" s="45">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="47"/>
@@ -7282,7 +7375,7 @@
       <c r="C18" s="59"/>
       <c r="D18" s="45">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="47"/>
@@ -7306,7 +7399,7 @@
       <c r="C19" s="59"/>
       <c r="D19" s="45">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="52"/>
@@ -7330,7 +7423,7 @@
       <c r="C20" s="65"/>
       <c r="D20" s="45">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="66"/>
@@ -7354,7 +7447,7 @@
       <c r="C21" s="46"/>
       <c r="D21" s="45">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="47"/>
@@ -7378,7 +7471,7 @@
       <c r="C22" s="46"/>
       <c r="D22" s="45">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="60"/>
@@ -7402,7 +7495,7 @@
       <c r="C23" s="46"/>
       <c r="D23" s="45">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E23" s="51"/>
       <c r="F23" s="9"/>
@@ -7426,7 +7519,7 @@
       <c r="C24" s="46"/>
       <c r="D24" s="45">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="47"/>
@@ -7450,7 +7543,7 @@
       <c r="C25" s="46"/>
       <c r="D25" s="45">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="9"/>
@@ -7474,7 +7567,7 @@
       <c r="C26" s="59"/>
       <c r="D26" s="45">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="15"/>
@@ -7496,7 +7589,7 @@
       <c r="C27" s="59"/>
       <c r="D27" s="45">
         <f>D26+B27-C27</f>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E27" s="51"/>
       <c r="F27" s="14"/>
@@ -7518,7 +7611,7 @@
       <c r="C28" s="46"/>
       <c r="D28" s="45">
         <f>D27+B28-C28</f>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="70"/>
@@ -7540,7 +7633,7 @@
       <c r="C29" s="59"/>
       <c r="D29" s="45">
         <f>D28+B29-C29</f>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E29" s="51"/>
       <c r="F29" s="66"/>
@@ -7562,7 +7655,7 @@
       <c r="C30" s="46"/>
       <c r="D30" s="45">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="52"/>
@@ -7584,7 +7677,7 @@
       <c r="C31" s="46"/>
       <c r="D31" s="45">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="9"/>
@@ -7606,7 +7699,7 @@
       <c r="C32" s="59"/>
       <c r="D32" s="45">
         <f>D31+B32-C32</f>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="69"/>
@@ -7628,7 +7721,7 @@
       <c r="C33" s="73"/>
       <c r="D33" s="45">
         <f t="shared" ref="D33:D82" si="1">D32+B33-C33</f>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E33" s="51"/>
       <c r="F33" s="51"/>
@@ -7650,7 +7743,7 @@
       <c r="C34" s="73"/>
       <c r="D34" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
@@ -7672,7 +7765,7 @@
       <c r="C35" s="73"/>
       <c r="D35" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E35" s="51"/>
       <c r="F35" s="8"/>
@@ -7694,7 +7787,7 @@
       <c r="C36" s="75"/>
       <c r="D36" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="76"/>
@@ -7716,7 +7809,7 @@
       <c r="C37" s="46"/>
       <c r="D37" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="48"/>
@@ -7738,7 +7831,7 @@
       <c r="C38" s="46"/>
       <c r="D38" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="52"/>
@@ -7760,7 +7853,7 @@
       <c r="C39" s="46"/>
       <c r="D39" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="76"/>
@@ -7782,7 +7875,7 @@
       <c r="C40" s="46"/>
       <c r="D40" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="47"/>
@@ -7804,7 +7897,7 @@
       <c r="C41" s="46"/>
       <c r="D41" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -7826,7 +7919,7 @@
       <c r="C42" s="77"/>
       <c r="D42" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E42" s="51"/>
       <c r="F42" s="51"/>
@@ -7848,7 +7941,7 @@
       <c r="C43" s="46"/>
       <c r="D43" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -7870,7 +7963,7 @@
       <c r="C44" s="78"/>
       <c r="D44" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E44" s="51"/>
       <c r="F44" s="8"/>
@@ -7892,7 +7985,7 @@
       <c r="C45" s="46"/>
       <c r="D45" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="60"/>
@@ -7914,7 +8007,7 @@
       <c r="C46" s="46"/>
       <c r="D46" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E46" s="47"/>
       <c r="F46" s="79"/>
@@ -7936,7 +8029,7 @@
       <c r="C47" s="46"/>
       <c r="D47" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="47"/>
@@ -7958,7 +8051,7 @@
       <c r="C48" s="46"/>
       <c r="D48" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E48" s="52"/>
       <c r="F48" s="9"/>
@@ -7980,7 +8073,7 @@
       <c r="C49" s="46"/>
       <c r="D49" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="47"/>
@@ -8002,7 +8095,7 @@
       <c r="C50" s="46"/>
       <c r="D50" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E50" s="47"/>
       <c r="F50" s="52"/>
@@ -8024,7 +8117,7 @@
       <c r="C51" s="46"/>
       <c r="D51" s="45">
         <f>D50+B51-C51</f>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E51" s="47"/>
       <c r="F51" s="9"/>
@@ -8046,7 +8139,7 @@
       <c r="C52" s="46"/>
       <c r="D52" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E52" s="47"/>
       <c r="F52" s="52"/>
@@ -8068,7 +8161,7 @@
       <c r="C53" s="46"/>
       <c r="D53" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E53" s="52"/>
       <c r="F53" s="47"/>
@@ -8090,7 +8183,7 @@
       <c r="C54" s="46"/>
       <c r="D54" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="52"/>
@@ -8112,7 +8205,7 @@
       <c r="C55" s="46"/>
       <c r="D55" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E55" s="47"/>
       <c r="F55" s="52"/>
@@ -8134,7 +8227,7 @@
       <c r="C56" s="46"/>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E56" s="47"/>
       <c r="F56" s="47"/>
@@ -8156,7 +8249,7 @@
       <c r="C57" s="46"/>
       <c r="D57" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="9"/>
@@ -8178,7 +8271,7 @@
       <c r="C58" s="46"/>
       <c r="D58" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E58" s="47"/>
       <c r="F58" s="52"/>
@@ -8200,7 +8293,7 @@
       <c r="C59" s="46"/>
       <c r="D59" s="45">
         <f>D58+B59-C59</f>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E59" s="47"/>
       <c r="F59" s="47"/>
@@ -8222,7 +8315,7 @@
       <c r="C60" s="46"/>
       <c r="D60" s="45">
         <f>D59+B60-C60</f>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="9"/>
@@ -8244,7 +8337,7 @@
       <c r="C61" s="46"/>
       <c r="D61" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="9"/>
@@ -8266,7 +8359,7 @@
       <c r="C62" s="46"/>
       <c r="D62" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E62" s="47"/>
       <c r="F62" s="9"/>
@@ -8288,7 +8381,7 @@
       <c r="C63" s="46"/>
       <c r="D63" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="9"/>
@@ -8310,7 +8403,7 @@
       <c r="C64" s="46"/>
       <c r="D64" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E64" s="47"/>
       <c r="F64" s="9"/>
@@ -8332,7 +8425,7 @@
       <c r="C65" s="46"/>
       <c r="D65" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E65" s="47"/>
       <c r="F65" s="9"/>
@@ -8354,7 +8447,7 @@
       <c r="C66" s="46"/>
       <c r="D66" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E66" s="47"/>
       <c r="F66" s="9"/>
@@ -8376,7 +8469,7 @@
       <c r="C67" s="46"/>
       <c r="D67" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E67" s="47"/>
       <c r="F67" s="47"/>
@@ -8398,7 +8491,7 @@
       <c r="C68" s="46"/>
       <c r="D68" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E68" s="47"/>
       <c r="F68" s="47"/>
@@ -8420,7 +8513,7 @@
       <c r="C69" s="46"/>
       <c r="D69" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E69" s="47"/>
       <c r="F69" s="9"/>
@@ -8442,7 +8535,7 @@
       <c r="C70" s="46"/>
       <c r="D70" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E70" s="47"/>
       <c r="F70" s="9"/>
@@ -8464,7 +8557,7 @@
       <c r="C71" s="46"/>
       <c r="D71" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E71" s="47"/>
       <c r="F71" s="9"/>
@@ -8486,7 +8579,7 @@
       <c r="C72" s="46"/>
       <c r="D72" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E72" s="47"/>
       <c r="F72" s="9"/>
@@ -8508,7 +8601,7 @@
       <c r="C73" s="46"/>
       <c r="D73" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="9"/>
@@ -8530,7 +8623,7 @@
       <c r="C74" s="46"/>
       <c r="D74" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E74" s="47"/>
       <c r="F74" s="9"/>
@@ -8552,7 +8645,7 @@
       <c r="C75" s="46"/>
       <c r="D75" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E75" s="60"/>
       <c r="F75" s="9"/>
@@ -8574,7 +8667,7 @@
       <c r="C76" s="46"/>
       <c r="D76" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E76" s="47"/>
       <c r="F76" s="9"/>
@@ -8596,7 +8689,7 @@
       <c r="C77" s="46"/>
       <c r="D77" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E77" s="47"/>
       <c r="F77" s="9"/>
@@ -8618,7 +8711,7 @@
       <c r="C78" s="46"/>
       <c r="D78" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E78" s="47"/>
       <c r="F78" s="9"/>
@@ -8640,7 +8733,7 @@
       <c r="C79" s="46"/>
       <c r="D79" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E79" s="47"/>
       <c r="F79" s="9"/>
@@ -8662,7 +8755,7 @@
       <c r="C80" s="46"/>
       <c r="D80" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9"/>
@@ -8684,7 +8777,7 @@
       <c r="C81" s="46"/>
       <c r="D81" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="9"/>
@@ -8706,7 +8799,7 @@
       <c r="C82" s="46"/>
       <c r="D82" s="45">
         <f t="shared" si="1"/>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9"/>
@@ -8726,15 +8819,15 @@
       <c r="A83" s="81"/>
       <c r="B83" s="50">
         <f>SUM(B4:B72)</f>
-        <v>1736250</v>
+        <v>2351250</v>
       </c>
       <c r="C83" s="46">
         <f>SUM(C4:C77)</f>
-        <v>1700000</v>
+        <v>2300000</v>
       </c>
       <c r="D83" s="82">
         <f>D82</f>
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="12"/>
@@ -8782,8 +8875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8817,7 +8910,7 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A2" s="355" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B2" s="356"/>
       <c r="C2" s="356"/>
@@ -8865,7 +8958,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="87">
-        <v>1296287.31</v>
+        <v>1461694.365</v>
       </c>
       <c r="F5" s="4"/>
       <c r="J5" s="146" t="s">
@@ -8883,14 +8976,14 @@
         <v>38</v>
       </c>
       <c r="B6" s="30">
-        <v>16143.31</v>
+        <v>22661.365000000005</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="29" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="87">
-        <v>36250</v>
+        <v>51250</v>
       </c>
       <c r="F6" s="3"/>
       <c r="J6" s="146" t="s">
@@ -8911,7 +9004,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="88">
-        <v>247815</v>
+        <v>257383</v>
       </c>
       <c r="F7" s="3"/>
       <c r="J7" s="146" t="s">
@@ -8929,14 +9022,14 @@
         <v>39</v>
       </c>
       <c r="B8" s="30">
-        <v>15034</v>
+        <v>20159</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="89">
-        <v>170654</v>
+        <v>160072</v>
       </c>
       <c r="F8" s="3"/>
       <c r="J8" s="146" t="s">
@@ -9022,15 +9115,13 @@
       </c>
       <c r="B12" s="38">
         <f>B6-B8-B9</f>
-        <v>1109.3099999999995</v>
+        <v>2502.3650000000052</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="89">
-        <v>178000</v>
-      </c>
+      <c r="E12" s="89"/>
       <c r="F12" s="22"/>
       <c r="J12" s="146" t="s">
         <v>128</v>
@@ -9082,7 +9173,7 @@
       </c>
       <c r="B15" s="30">
         <f>B5+B12-B13-B11</f>
-        <v>2001109.31</v>
+        <v>2002502.365</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="29" t="s">
@@ -9090,7 +9181,7 @@
       </c>
       <c r="E15" s="89">
         <f>E5+E6+E7+E8+E9+E10+E12-E11+E13</f>
-        <v>2001109.31</v>
+        <v>2002502.365</v>
       </c>
       <c r="F15" s="22"/>
       <c r="J15" s="146" t="s">
@@ -9305,8 +9396,8 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:B5"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9417,7 +9508,7 @@
     </row>
     <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="374" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B5" s="375"/>
       <c r="C5" s="192"/>
@@ -9564,7 +9655,7 @@
       <c r="N8" s="169"/>
       <c r="O8" s="169"/>
       <c r="P8" s="169">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="167"/>
       <c r="T8" s="187" t="s">
@@ -9598,7 +9689,7 @@
       <c r="L9" s="167"/>
       <c r="M9" s="168"/>
       <c r="N9" s="169">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="O9" s="169">
         <v>5</v>
@@ -9657,15 +9748,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="153">
-        <v>5</v>
-      </c>
-      <c r="B11" s="166" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="150" t="s">
-        <v>63</v>
-      </c>
+      <c r="A11" s="153"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="150"/>
       <c r="D11" s="154"/>
       <c r="E11" s="150"/>
       <c r="F11" s="167"/>
@@ -9779,7 +9864,7 @@
       <c r="L14" s="167"/>
       <c r="M14" s="168"/>
       <c r="N14" s="169">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="O14" s="169">
         <v>15</v>
@@ -9861,13 +9946,13 @@
       <c r="D17" s="154"/>
       <c r="E17" s="150"/>
       <c r="F17" s="167">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="G17" s="167">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H17" s="171">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="I17" s="167"/>
       <c r="J17" s="171"/>
@@ -9875,10 +9960,10 @@
       <c r="L17" s="167"/>
       <c r="M17" s="168"/>
       <c r="N17" s="169">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O17" s="169">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P17" s="169">
         <v>11</v>
@@ -9900,8 +9985,12 @@
       <c r="A18" s="153">
         <v>12</v>
       </c>
-      <c r="B18" s="166"/>
-      <c r="C18" s="151"/>
+      <c r="B18" s="166" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="151" t="s">
+        <v>160</v>
+      </c>
       <c r="D18" s="154"/>
       <c r="E18" s="150"/>
       <c r="F18" s="167"/>
@@ -9912,7 +10001,9 @@
       <c r="K18" s="171"/>
       <c r="L18" s="167"/>
       <c r="M18" s="168"/>
-      <c r="N18" s="169"/>
+      <c r="N18" s="169">
+        <v>25</v>
+      </c>
       <c r="O18" s="169"/>
       <c r="P18" s="169"/>
       <c r="Q18" s="174"/>
@@ -9924,8 +10015,12 @@
       <c r="A19" s="175">
         <v>13</v>
       </c>
-      <c r="B19" s="166"/>
-      <c r="C19" s="150"/>
+      <c r="B19" s="166" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="150" t="s">
+        <v>162</v>
+      </c>
       <c r="D19" s="154"/>
       <c r="E19" s="150"/>
       <c r="F19" s="167"/>
@@ -9936,7 +10031,9 @@
       <c r="K19" s="171"/>
       <c r="L19" s="167"/>
       <c r="M19" s="168"/>
-      <c r="N19" s="169"/>
+      <c r="N19" s="169">
+        <v>20</v>
+      </c>
       <c r="O19" s="169"/>
       <c r="P19" s="169"/>
       <c r="Q19" s="174"/>
@@ -9950,20 +10047,32 @@
       <c r="A20" s="153">
         <v>14</v>
       </c>
-      <c r="B20" s="166"/>
-      <c r="C20" s="155"/>
+      <c r="B20" s="166" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="155" t="s">
+        <v>163</v>
+      </c>
       <c r="D20" s="177"/>
       <c r="E20" s="165"/>
-      <c r="F20" s="167"/>
+      <c r="F20" s="167">
+        <v>110</v>
+      </c>
       <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
+      <c r="H20" s="167">
+        <v>90</v>
+      </c>
       <c r="I20" s="167"/>
       <c r="J20" s="171"/>
       <c r="K20" s="171"/>
       <c r="L20" s="167"/>
       <c r="M20" s="168"/>
-      <c r="N20" s="169"/>
-      <c r="O20" s="169"/>
+      <c r="N20" s="169">
+        <v>10</v>
+      </c>
+      <c r="O20" s="169">
+        <v>10</v>
+      </c>
       <c r="P20" s="169"/>
       <c r="Q20" s="174"/>
       <c r="S20" s="147" t="s">
@@ -10201,15 +10310,15 @@
       </c>
       <c r="F29" s="200">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="G29" s="200">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="H29" s="200">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="I29" s="200">
         <f t="shared" si="0"/>
@@ -10233,15 +10342,15 @@
       </c>
       <c r="N29" s="200">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="O29" s="200">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="P29" s="200">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="Q29" s="201"/>
     </row>
@@ -12429,8 +12538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:W26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12470,7 +12579,7 @@
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="388" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B2" s="388"/>
       <c r="C2" s="388"/>

--- a/April'21/11.04.2021/Bank Statement.xlsx
+++ b/April'21/11.04.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2943,6 +2943,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2959,12 +2965,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3739,48 +3739,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="325" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
-      <c r="N1" s="323"/>
-      <c r="O1" s="323"/>
-      <c r="P1" s="323"/>
-      <c r="Q1" s="323"/>
-      <c r="R1" s="323"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
+      <c r="Q1" s="325"/>
+      <c r="R1" s="325"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="326" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="M2" s="324"/>
-      <c r="N2" s="324"/>
-      <c r="O2" s="324"/>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="324"/>
-      <c r="R2" s="324"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326"/>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="326"/>
+      <c r="N2" s="326"/>
+      <c r="O2" s="326"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="326"/>
+      <c r="R2" s="326"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="335" t="s">
@@ -3811,34 +3811,34 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="325" t="s">
+      <c r="A4" s="327" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="327" t="s">
+      <c r="B4" s="329" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="327" t="s">
+      <c r="C4" s="329" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="329" t="s">
+      <c r="D4" s="323" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="323" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="329" t="s">
+      <c r="F4" s="323" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="329" t="s">
+      <c r="G4" s="323" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="329" t="s">
+      <c r="H4" s="323" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="329" t="s">
+      <c r="I4" s="323" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="329" t="s">
+      <c r="J4" s="323" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="338" t="s">
@@ -3872,16 +3872,16 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="326"/>
-      <c r="B5" s="328"/>
-      <c r="C5" s="328"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="330"/>
-      <c r="J5" s="330"/>
+      <c r="A5" s="328"/>
+      <c r="B5" s="330"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="324"/>
+      <c r="E5" s="324"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="324"/>
+      <c r="H5" s="324"/>
+      <c r="I5" s="324"/>
+      <c r="J5" s="324"/>
       <c r="K5" s="339"/>
       <c r="L5" s="341"/>
       <c r="M5" s="343"/>
@@ -6854,6 +6854,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -6870,10 +6874,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -8875,7 +8875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
@@ -9395,9 +9395,9 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
